--- a/XuMiuDuTing/RabiConfig/xlsx/Chapter.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Chapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41604B4B-EFB5-4663-A0FB-25C9AE42E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB98BD56-1BE5-4411-9667-7F2770EF97AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1,1-2,1-3,1-4,1-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plotTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,18 +144,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-1,0-2,0-3,0-4,0-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plotZero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Sprite/Plot/第一章标题.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AddressableAssets/Sprite/Plot/第一章背景.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +157,57 @@
   </si>
   <si>
     <t>plotZero,plotOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第零章背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfxFogActive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下角是否开启迷雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageFramePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageItemList预设路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Common/ChapterSelect/StageFrame_Plot0.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Common/ChapterSelect/StageFrame_Plot1.prefab</t>
+  </si>
+  <si>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-0,1-1,1-2,1-3,1-4,1-5,1-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,24 +543,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -541,12 +580,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="85.125" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -557,7 +596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -568,7 +607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -579,7 +618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -587,10 +626,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,47 +648,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BD815B-CA04-431F-BD44-28DDC9407D6E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="64.875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,33 +714,51 @@
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -701,41 +771,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA248D8E-211C-4B19-836B-6082415DB8C1}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,17 +833,17 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -784,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -795,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -806,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -815,7 +885,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
